--- a/Attendance Register.xlsx
+++ b/Attendance Register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewlvac-my.sharepoint.com/personal/k_d_ransley_wlv_ac_uk/Documents/Year Two/Semester Two/5CS024 - Collaborative Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Documents\GitHub\Collaborative-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA7822A-EDE8-4B65-8456-D2721320154A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A40AB-768D-4B2C-82A5-C1A88957F9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -66,13 +66,78 @@
   </si>
   <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>A = Abscent unknown</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Abscent with reason</t>
+    </r>
+  </si>
+  <si>
+    <t>Reasons:</t>
+  </si>
+  <si>
+    <t>None Needed</t>
+  </si>
+  <si>
+    <t>Kamil: Driving Lesson at that time.</t>
+  </si>
+  <si>
+    <t>Kamil: Job Interview. Callum: Poorly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Present</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,21 +154,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF915100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -368,11 +453,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,9 +537,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,20 +892,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8888ECCE-3AFA-491B-BF39-CAF6A951ED57}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,54 +931,121 @@
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="K3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="O3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="22">
+        <v>44956</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="O4" s="32">
+        <v>44956</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
         <v>44959</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="I5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="O5" s="32">
+        <v>44959</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="26">
+        <v>44963</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="O6" s="32">
+        <v>44963</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -840,7 +1055,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -850,7 +1065,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -860,7 +1075,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -870,7 +1085,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -880,7 +1095,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -890,7 +1105,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -900,7 +1115,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -910,7 +1125,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -920,7 +1135,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -940,32 +1155,61 @@
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:M5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F795650DEDD2C479A496F1D012836DF" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a30d89e5d580e5d38749dfbf63d0d618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2a37d7d9-3c92-4e86-88b7-b18141d23a98" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e58ebb1643a10d5d0cc4c63f58672802" ns3:_="">
     <xsd:import namespace="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
@@ -1137,22 +1381,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F30E7DE4-74E6-4B42-8AEF-38E65E803E83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1168,28 +1421,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Attendance Register.xlsx
+++ b/Attendance Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Documents\GitHub\Collaborative-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A40AB-768D-4B2C-82A5-C1A88957F9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF21C71-C16F-46FC-87A1-9FC44BF64229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
       </rPr>
       <t xml:space="preserve"> = Present</t>
     </r>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -540,16 +543,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +572,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,7 +898,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,34 +939,34 @@
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="33"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>44956</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="25" t="s">
+      <c r="C4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="20"/>
@@ -971,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="20"/>
-      <c r="O4" s="32">
+      <c r="O4" s="31">
         <v>44956</v>
       </c>
       <c r="P4" t="s">
@@ -997,18 +1000,18 @@
       <c r="G5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="O5" s="32">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="O5" s="31">
         <v>44959</v>
       </c>
       <c r="P5" t="s">
@@ -1016,29 +1019,31 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>44963</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="O6" s="32">
+      <c r="I6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="31">
         <v>44963</v>
       </c>
       <c r="P6" t="s">
@@ -1195,18 +1200,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,14 +1387,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1401,6 +1398,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Attendance Register.xlsx
+++ b/Attendance Register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Documents\GitHub\Collaborative-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b6a7b35bbdfe2b/Documents/GitHub/Collaborative-Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF21C71-C16F-46FC-87A1-9FC44BF64229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{8AF21C71-C16F-46FC-87A1-9FC44BF64229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B4738C-665E-4662-96D3-1073A77CF209}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -131,9 +131,6 @@
       </rPr>
       <t xml:space="preserve"> = Present</t>
     </r>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -191,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -442,35 +439,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -482,14 +459,29 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,22 +529,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -574,6 +551,18 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,7 +887,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,47 +923,47 @@
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="O3" s="30" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="O3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21">
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="29">
         <v>44956</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20" t="s">
+      <c r="C4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="O4" s="31">
+      <c r="M4" s="19"/>
+      <c r="O4" s="26">
         <v>44956</v>
       </c>
       <c r="P4" t="s">
@@ -985,7 +974,7 @@
       <c r="B5" s="7">
         <v>44959</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -1000,18 +989,18 @@
       <c r="G5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="33" t="s">
+      <c r="I5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="O5" s="31">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="O5" s="26">
         <v>44959</v>
       </c>
       <c r="P5" t="s">
@@ -1019,31 +1008,31 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="25">
+      <c r="B6" s="20">
         <v>44963</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="E6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="31">
+      <c r="I6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="26">
         <v>44963</v>
       </c>
       <c r="P6" t="s">
@@ -1200,18 +1189,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,6 +1376,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1398,14 +1395,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Attendance Register.xlsx
+++ b/Attendance Register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4b6a7b35bbdfe2b/Documents/GitHub/Collaborative-Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Documents\GitHub\Collaborative-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{8AF21C71-C16F-46FC-87A1-9FC44BF64229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B4738C-665E-4662-96D3-1073A77CF209}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48DD68-B253-40DD-BDC1-A6EC83F0E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
       </rPr>
       <t xml:space="preserve"> = Present</t>
     </r>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -550,19 +553,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +890,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +937,7 @@
       <c r="P3" s="27"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>44956</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -955,7 +958,7 @@
       <c r="H4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="19"/>
@@ -992,14 +995,14 @@
       <c r="H5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="28" t="s">
+      <c r="I5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
       <c r="O5" s="26">
         <v>44959</v>
       </c>
@@ -1029,7 +1032,7 @@
       <c r="H6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="31" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="26">
@@ -1040,14 +1043,30 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="B7" s="20">
+        <v>44966</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
@@ -1189,18 +1208,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1376,14 +1395,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1395,6 +1406,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Attendance Register.xlsx
+++ b/Attendance Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Documents\GitHub\Collaborative-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48DD68-B253-40DD-BDC1-A6EC83F0E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C19B7-DD34-4FB2-B098-18E7D521048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -131,9 +131,6 @@
       </rPr>
       <t xml:space="preserve"> = Present</t>
     </r>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -484,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,6 +563,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -890,7 +890,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,26 +1046,26 @@
       <c r="B7" s="20">
         <v>44966</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>17</v>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1208,18 +1208,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,6 +1395,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1406,14 +1414,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Attendance Register.xlsx
+++ b/Attendance Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Documents\GitHub\Collaborative-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6C19B7-DD34-4FB2-B098-18E7D521048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD261E5-8A6B-407E-8B77-0B067714C5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -132,12 +132,18 @@
       <t xml:space="preserve"> = Present</t>
     </r>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Callum: lost flat keys. Kieron: Doctors appointment. Sapphire: Unknown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +179,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -481,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,10 +575,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -890,14 +913,14 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -998,11 +1021,11 @@
       <c r="I5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="O5" s="26">
         <v>44959</v>
       </c>
@@ -1061,22 +1084,50 @@
       <c r="G7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>8</v>
       </c>
+      <c r="O7" s="26">
+        <v>44966</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="34">
+        <v>44970</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="35">
+        <v>44970</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
@@ -1208,18 +1259,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,14 +1446,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1414,6 +1457,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Attendance Register.xlsx
+++ b/Attendance Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Documents\GitHub\Collaborative-Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD261E5-8A6B-407E-8B77-0B067714C5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D687CD20-D5A0-44D0-BDF8-E9E4164E87ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7DA00A3-42D1-4B75-A954-EEE1CDE2C730}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -133,17 +133,14 @@
     </r>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Callum: lost flat keys. Kieron: Doctors appointment. Sapphire: Unknown</t>
+    <t>Callum: lost flat keys. Kieron: Doctors appointment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +183,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -494,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,9 +582,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,6 +590,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -913,7 +920,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,11 +1028,11 @@
       <c r="I5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="O5" s="26">
         <v>44959</v>
       </c>
@@ -1098,35 +1105,35 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>44970</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="G8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="34">
+        <v>44970</v>
+      </c>
+      <c r="P8" t="s">
         <v>17</v>
-      </c>
-      <c r="O8" s="35">
-        <v>44970</v>
-      </c>
-      <c r="P8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -1259,18 +1266,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1446,6 +1453,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45892AD-5203-43D5-AD58-08065A5472C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1457,14 +1472,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2a37d7d9-3c92-4e86-88b7-b18141d23a98"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE284780-E1A3-42CB-A6D7-A276C5721CC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
